--- a/data/Production_Filled_September.xlsx
+++ b/data/Production_Filled_September.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
     <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
+    <sheet name="Spinning_Prod" sheetId="4" r:id="rId4"/>
+    <sheet name="Twisting_Prod" sheetId="5" r:id="rId5"/>
+    <sheet name="Weaving_Prod" sheetId="6" r:id="rId6"/>
+    <sheet name="Spool_Winding_Stock" sheetId="7" r:id="rId7"/>
+    <sheet name="Cop_Winding_Stock" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>DATE</t>
   </si>
@@ -354,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +409,29 @@
     <font>
       <u/>
       <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -609,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -706,6 +734,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6826,7 +6863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -9153,7 +9190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J10" activeCellId="1" sqref="H10 J10"/>
     </sheetView>
   </sheetViews>
@@ -9782,8 +9819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:AA85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14447,4 +14484,3634 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="27" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="48" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49">
+        <v>45901</v>
+      </c>
+      <c r="C1" s="49">
+        <v>45902</v>
+      </c>
+      <c r="D1" s="49">
+        <v>45903</v>
+      </c>
+      <c r="E1" s="49">
+        <v>45904</v>
+      </c>
+      <c r="F1" s="49">
+        <v>45906</v>
+      </c>
+      <c r="G1" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H1" s="49">
+        <v>45908</v>
+      </c>
+      <c r="I1" s="49">
+        <v>45909</v>
+      </c>
+      <c r="J1" s="49">
+        <v>45910</v>
+      </c>
+      <c r="K1" s="49">
+        <v>45911</v>
+      </c>
+      <c r="L1" s="49">
+        <v>45913</v>
+      </c>
+      <c r="M1" s="49">
+        <v>45914</v>
+      </c>
+      <c r="N1" s="49">
+        <v>45915</v>
+      </c>
+      <c r="O1" s="49">
+        <v>45916</v>
+      </c>
+      <c r="P1" s="49">
+        <v>45917</v>
+      </c>
+      <c r="Q1" s="49">
+        <v>45918</v>
+      </c>
+      <c r="R1" s="49">
+        <v>45920</v>
+      </c>
+      <c r="S1" s="49">
+        <v>45921</v>
+      </c>
+      <c r="T1" s="49">
+        <v>45922</v>
+      </c>
+      <c r="U1" s="49">
+        <v>45923</v>
+      </c>
+      <c r="V1" s="49">
+        <v>45924</v>
+      </c>
+      <c r="W1" s="49">
+        <v>45925</v>
+      </c>
+      <c r="X1" s="49">
+        <v>45927</v>
+      </c>
+      <c r="Y1" s="49">
+        <v>45928</v>
+      </c>
+      <c r="Z1" s="49">
+        <v>45929</v>
+      </c>
+      <c r="AA1" s="49">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="32">
+        <v>143</v>
+      </c>
+      <c r="C2" s="32">
+        <v>142</v>
+      </c>
+      <c r="D2" s="32">
+        <v>142</v>
+      </c>
+      <c r="E2" s="32">
+        <v>143</v>
+      </c>
+      <c r="F2" s="32">
+        <v>143</v>
+      </c>
+      <c r="G2" s="32">
+        <v>143</v>
+      </c>
+      <c r="H2" s="32">
+        <v>143</v>
+      </c>
+      <c r="I2" s="32">
+        <v>143</v>
+      </c>
+      <c r="J2" s="32">
+        <v>143</v>
+      </c>
+      <c r="K2" s="32">
+        <v>144</v>
+      </c>
+      <c r="L2" s="13">
+        <v>145</v>
+      </c>
+      <c r="M2" s="33">
+        <v>143.5</v>
+      </c>
+      <c r="N2" s="32">
+        <v>145</v>
+      </c>
+      <c r="O2" s="32">
+        <v>144.5</v>
+      </c>
+      <c r="P2" s="32">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2.66</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.78</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2.36</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="O3" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="12">
+        <v>17.248000000000001</v>
+      </c>
+      <c r="C6" s="12">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D6" s="12">
+        <v>16.933</v>
+      </c>
+      <c r="E6" s="12">
+        <v>17.213000000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>17.169</v>
+      </c>
+      <c r="G6" s="12">
+        <v>17.815000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>18.186</v>
+      </c>
+      <c r="I6" s="12">
+        <v>17.706</v>
+      </c>
+      <c r="J6" s="12">
+        <v>17.47</v>
+      </c>
+      <c r="K6" s="12">
+        <v>17.978000000000002</v>
+      </c>
+      <c r="L6" s="12">
+        <v>17.722999999999999</v>
+      </c>
+      <c r="M6" s="12">
+        <v>17.616</v>
+      </c>
+      <c r="N6" s="12">
+        <v>17.341000000000001</v>
+      </c>
+      <c r="O6" s="12">
+        <v>16.693999999999999</v>
+      </c>
+      <c r="P6" s="12">
+        <v>17.187999999999999</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1.56</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.86</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1.86</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9.9849999999999994</v>
+      </c>
+      <c r="C10" s="12">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="D10" s="12">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E10" s="12">
+        <v>9.59</v>
+      </c>
+      <c r="F10" s="12">
+        <v>9.5050000000000008</v>
+      </c>
+      <c r="G10" s="12">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="H10" s="12">
+        <v>9.58</v>
+      </c>
+      <c r="I10" s="12">
+        <v>10.855</v>
+      </c>
+      <c r="J10" s="12">
+        <v>9.68</v>
+      </c>
+      <c r="K10" s="12">
+        <v>9.6449999999999996</v>
+      </c>
+      <c r="L10" s="12">
+        <v>9.26</v>
+      </c>
+      <c r="M10" s="12">
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="N10" s="12">
+        <v>10.744999999999999</v>
+      </c>
+      <c r="O10" s="12">
+        <v>10.843999999999999</v>
+      </c>
+      <c r="P10" s="12">
+        <v>10.638</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4.1950000000000003</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4.16</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="K11" s="12">
+        <v>4.05</v>
+      </c>
+      <c r="L11" s="12">
+        <v>3.97</v>
+      </c>
+      <c r="M11" s="12">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="N11" s="12">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O11" s="12">
+        <v>3.99</v>
+      </c>
+      <c r="P11" s="12">
+        <v>3.97</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.54</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5.42</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H12" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="J12" s="12">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="K12" s="12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="M12" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="N12" s="12">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="O12" s="12">
+        <v>5.87</v>
+      </c>
+      <c r="P12" s="12">
+        <v>3.82</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.67</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.66</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2.92</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3.278</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3.27</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="F18" s="12">
+        <v>3.21</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="H18" s="12">
+        <v>3.29</v>
+      </c>
+      <c r="I18" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="J18" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="K18" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="L18" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="M18" s="12">
+        <v>4.09</v>
+      </c>
+      <c r="N18" s="12">
+        <v>3.27</v>
+      </c>
+      <c r="O18" s="12">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="P18" s="12">
+        <v>3.28</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="27" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="48" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49">
+        <v>45901</v>
+      </c>
+      <c r="C1" s="49">
+        <v>45902</v>
+      </c>
+      <c r="D1" s="49">
+        <v>45903</v>
+      </c>
+      <c r="E1" s="49">
+        <v>45904</v>
+      </c>
+      <c r="F1" s="49">
+        <v>45906</v>
+      </c>
+      <c r="G1" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H1" s="49">
+        <v>45908</v>
+      </c>
+      <c r="I1" s="49">
+        <v>45909</v>
+      </c>
+      <c r="J1" s="49">
+        <v>45910</v>
+      </c>
+      <c r="K1" s="49">
+        <v>45911</v>
+      </c>
+      <c r="L1" s="49">
+        <v>45913</v>
+      </c>
+      <c r="M1" s="49">
+        <v>45914</v>
+      </c>
+      <c r="N1" s="49">
+        <v>45915</v>
+      </c>
+      <c r="O1" s="49">
+        <v>45916</v>
+      </c>
+      <c r="P1" s="49">
+        <v>45917</v>
+      </c>
+      <c r="Q1" s="49">
+        <v>45918</v>
+      </c>
+      <c r="R1" s="49">
+        <v>45920</v>
+      </c>
+      <c r="S1" s="49">
+        <v>45921</v>
+      </c>
+      <c r="T1" s="49">
+        <v>45922</v>
+      </c>
+      <c r="U1" s="49">
+        <v>45923</v>
+      </c>
+      <c r="V1" s="49">
+        <v>45924</v>
+      </c>
+      <c r="W1" s="49">
+        <v>45925</v>
+      </c>
+      <c r="X1" s="49">
+        <v>45927</v>
+      </c>
+      <c r="Y1" s="49">
+        <v>45928</v>
+      </c>
+      <c r="Z1" s="49">
+        <v>45929</v>
+      </c>
+      <c r="AA1" s="49">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="27" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="48" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49">
+        <v>45901</v>
+      </c>
+      <c r="C1" s="49">
+        <v>45902</v>
+      </c>
+      <c r="D1" s="49">
+        <v>45903</v>
+      </c>
+      <c r="E1" s="49">
+        <v>45904</v>
+      </c>
+      <c r="F1" s="49">
+        <v>45906</v>
+      </c>
+      <c r="G1" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H1" s="49">
+        <v>45908</v>
+      </c>
+      <c r="I1" s="49">
+        <v>45909</v>
+      </c>
+      <c r="J1" s="49">
+        <v>45910</v>
+      </c>
+      <c r="K1" s="49">
+        <v>45911</v>
+      </c>
+      <c r="L1" s="49">
+        <v>45913</v>
+      </c>
+      <c r="M1" s="49">
+        <v>45914</v>
+      </c>
+      <c r="N1" s="49">
+        <v>45915</v>
+      </c>
+      <c r="O1" s="49">
+        <v>45916</v>
+      </c>
+      <c r="P1" s="49">
+        <v>45917</v>
+      </c>
+      <c r="Q1" s="49">
+        <v>45918</v>
+      </c>
+      <c r="R1" s="49">
+        <v>45920</v>
+      </c>
+      <c r="S1" s="49">
+        <v>45921</v>
+      </c>
+      <c r="T1" s="49">
+        <v>45922</v>
+      </c>
+      <c r="U1" s="49">
+        <v>45923</v>
+      </c>
+      <c r="V1" s="49">
+        <v>45924</v>
+      </c>
+      <c r="W1" s="49">
+        <v>45925</v>
+      </c>
+      <c r="X1" s="49">
+        <v>45927</v>
+      </c>
+      <c r="Y1" s="49">
+        <v>45928</v>
+      </c>
+      <c r="Z1" s="49">
+        <v>45929</v>
+      </c>
+      <c r="AA1" s="49">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.878</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="G2" s="12">
+        <f>(251+233+525)/1000</f>
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="H2" s="12">
+        <f>(251+264+233+394)/1000</f>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="I2" s="12">
+        <f>(503+187+394)/1000</f>
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="J2" s="12">
+        <f>(503+140+459)/1000</f>
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="K2" s="12">
+        <f>(368+459)/1000</f>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L2" s="12">
+        <f>(551+328)/1000</f>
+        <v>0.879</v>
+      </c>
+      <c r="M2" s="12">
+        <f>(551+197)/1000</f>
+        <v>0.748</v>
+      </c>
+      <c r="N2" s="12">
+        <f>(251+184+433+197)/1000</f>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="O2" s="12">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="P4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="12">
+        <v>29.125</v>
+      </c>
+      <c r="C5" s="12">
+        <v>28.292000000000002</v>
+      </c>
+      <c r="D5" s="12">
+        <v>28.172999999999998</v>
+      </c>
+      <c r="E5" s="12">
+        <v>28.163</v>
+      </c>
+      <c r="F5" s="12">
+        <v>28.262</v>
+      </c>
+      <c r="G5" s="12">
+        <v>28.026</v>
+      </c>
+      <c r="H5" s="12">
+        <v>27.048999999999999</v>
+      </c>
+      <c r="I5" s="12">
+        <v>29.047999999999998</v>
+      </c>
+      <c r="J5" s="12">
+        <v>28.468</v>
+      </c>
+      <c r="K5" s="12">
+        <v>29.059000000000001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>28.646999999999998</v>
+      </c>
+      <c r="M5" s="12">
+        <v>27.332000000000001</v>
+      </c>
+      <c r="N5" s="12">
+        <v>28.358000000000001</v>
+      </c>
+      <c r="O5" s="12">
+        <v>27.652000000000001</v>
+      </c>
+      <c r="P5" s="12">
+        <v>27.221</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.622</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0.371</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="27" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49">
+        <v>45901</v>
+      </c>
+      <c r="C1" s="49">
+        <v>45902</v>
+      </c>
+      <c r="D1" s="49">
+        <v>45903</v>
+      </c>
+      <c r="E1" s="49">
+        <v>45904</v>
+      </c>
+      <c r="F1" s="49">
+        <v>45906</v>
+      </c>
+      <c r="G1" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H1" s="49">
+        <v>45908</v>
+      </c>
+      <c r="I1" s="49">
+        <v>45909</v>
+      </c>
+      <c r="J1" s="49">
+        <v>45910</v>
+      </c>
+      <c r="K1" s="49">
+        <v>45911</v>
+      </c>
+      <c r="L1" s="49">
+        <v>45913</v>
+      </c>
+      <c r="M1" s="49">
+        <v>45914</v>
+      </c>
+      <c r="N1" s="49">
+        <v>45915</v>
+      </c>
+      <c r="O1" s="49">
+        <v>45916</v>
+      </c>
+      <c r="P1" s="49">
+        <v>45917</v>
+      </c>
+      <c r="Q1" s="49">
+        <v>45918</v>
+      </c>
+      <c r="R1" s="49">
+        <v>45920</v>
+      </c>
+      <c r="S1" s="49">
+        <v>45921</v>
+      </c>
+      <c r="T1" s="49">
+        <v>45922</v>
+      </c>
+      <c r="U1" s="49">
+        <v>45923</v>
+      </c>
+      <c r="V1" s="49">
+        <v>45924</v>
+      </c>
+      <c r="W1" s="49">
+        <v>45925</v>
+      </c>
+      <c r="X1" s="49">
+        <v>45927</v>
+      </c>
+      <c r="Y1" s="49">
+        <v>45928</v>
+      </c>
+      <c r="Z1" s="49">
+        <v>45929</v>
+      </c>
+      <c r="AA1" s="49">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="12">
+        <v>11.5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>12.8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12">
+        <v>15.25</v>
+      </c>
+      <c r="F4" s="12">
+        <v>16</v>
+      </c>
+      <c r="G4" s="12">
+        <v>17</v>
+      </c>
+      <c r="H4" s="12">
+        <v>17</v>
+      </c>
+      <c r="I4" s="12">
+        <v>16.25</v>
+      </c>
+      <c r="J4" s="12">
+        <v>14</v>
+      </c>
+      <c r="K4" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="L4" s="12">
+        <v>8</v>
+      </c>
+      <c r="M4" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="O4" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="P4" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="12">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12">
+        <v>20.9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>22</v>
+      </c>
+      <c r="H6" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="I6" s="12">
+        <v>23</v>
+      </c>
+      <c r="J6" s="12">
+        <v>23</v>
+      </c>
+      <c r="K6" s="12">
+        <v>24.5</v>
+      </c>
+      <c r="L6" s="12">
+        <v>23</v>
+      </c>
+      <c r="M6" s="12">
+        <v>23.75</v>
+      </c>
+      <c r="N6" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="O6" s="12">
+        <v>22</v>
+      </c>
+      <c r="P6" s="12">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="12">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12">
+        <v>22.25</v>
+      </c>
+      <c r="D7" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>21.87</v>
+      </c>
+      <c r="F7" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12">
+        <v>23</v>
+      </c>
+      <c r="I7" s="12">
+        <v>23.25</v>
+      </c>
+      <c r="J7" s="12">
+        <v>23.5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>25</v>
+      </c>
+      <c r="L7" s="12">
+        <v>25</v>
+      </c>
+      <c r="M7" s="12">
+        <v>25</v>
+      </c>
+      <c r="N7" s="12">
+        <v>28</v>
+      </c>
+      <c r="O7" s="12">
+        <v>29</v>
+      </c>
+      <c r="P7" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="12">
+        <v>71.602000000000004</v>
+      </c>
+      <c r="C8" s="12">
+        <v>75.141999999999996</v>
+      </c>
+      <c r="D8" s="12">
+        <v>80.561999999999998</v>
+      </c>
+      <c r="E8" s="12">
+        <v>84.361999999999995</v>
+      </c>
+      <c r="F8" s="12">
+        <v>80.218999999999994</v>
+      </c>
+      <c r="G8" s="12">
+        <v>73.528999999999996</v>
+      </c>
+      <c r="H8" s="12">
+        <v>66.679000000000002</v>
+      </c>
+      <c r="I8" s="12">
+        <v>58.759</v>
+      </c>
+      <c r="J8" s="12">
+        <v>64.804000000000002</v>
+      </c>
+      <c r="K8" s="12">
+        <v>58.543999999999997</v>
+      </c>
+      <c r="L8" s="12">
+        <v>50.923999999999999</v>
+      </c>
+      <c r="M8" s="12">
+        <v>56.484000000000002</v>
+      </c>
+      <c r="N8" s="12">
+        <v>61.896000000000001</v>
+      </c>
+      <c r="O8" s="12">
+        <v>56.345999999999997</v>
+      </c>
+      <c r="P8" s="12">
+        <v>60.165999999999997</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="39">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="12">
+        <v>19.678999999999998</v>
+      </c>
+      <c r="C11" s="12">
+        <v>15.457000000000001</v>
+      </c>
+      <c r="D11" s="12">
+        <v>18.727</v>
+      </c>
+      <c r="E11" s="12">
+        <v>11.327</v>
+      </c>
+      <c r="F11" s="12">
+        <v>14.537000000000001</v>
+      </c>
+      <c r="G11" s="12">
+        <v>17.837</v>
+      </c>
+      <c r="H11" s="12">
+        <v>21.126999999999999</v>
+      </c>
+      <c r="I11" s="40">
+        <v>23.036999999999999</v>
+      </c>
+      <c r="J11" s="12">
+        <v>26.417000000000002</v>
+      </c>
+      <c r="K11" s="12">
+        <v>30.463000000000001</v>
+      </c>
+      <c r="L11" s="12">
+        <v>25.992999999999999</v>
+      </c>
+      <c r="M11" s="12">
+        <v>30.082999999999998</v>
+      </c>
+      <c r="N11" s="12">
+        <v>31.838000000000001</v>
+      </c>
+      <c r="O11" s="12">
+        <v>25.853000000000002</v>
+      </c>
+      <c r="P11" s="12">
+        <v>29.132999999999999</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="C12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="D12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="E12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="F12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="G12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="H12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="I12" s="40">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="J12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="K12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="L12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="M12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="N12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="O12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="P12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="H14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="K14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="M14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="P14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="M16" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="P16" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12">
+        <v>2</v>
+      </c>
+      <c r="O17" s="12">
+        <v>2</v>
+      </c>
+      <c r="P17" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="27" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49">
+        <v>45901</v>
+      </c>
+      <c r="C1" s="49">
+        <v>45902</v>
+      </c>
+      <c r="D1" s="49">
+        <v>45903</v>
+      </c>
+      <c r="E1" s="49">
+        <v>45904</v>
+      </c>
+      <c r="F1" s="49">
+        <v>45906</v>
+      </c>
+      <c r="G1" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H1" s="49">
+        <v>45908</v>
+      </c>
+      <c r="I1" s="49">
+        <v>45909</v>
+      </c>
+      <c r="J1" s="49">
+        <v>45910</v>
+      </c>
+      <c r="K1" s="49">
+        <v>45911</v>
+      </c>
+      <c r="L1" s="49">
+        <v>45913</v>
+      </c>
+      <c r="M1" s="49">
+        <v>45914</v>
+      </c>
+      <c r="N1" s="49">
+        <v>45915</v>
+      </c>
+      <c r="O1" s="49">
+        <v>45916</v>
+      </c>
+      <c r="P1" s="49">
+        <v>45917</v>
+      </c>
+      <c r="Q1" s="49">
+        <v>45918</v>
+      </c>
+      <c r="R1" s="49">
+        <v>45920</v>
+      </c>
+      <c r="S1" s="49">
+        <v>45921</v>
+      </c>
+      <c r="T1" s="49">
+        <v>45922</v>
+      </c>
+      <c r="U1" s="49">
+        <v>45923</v>
+      </c>
+      <c r="V1" s="49">
+        <v>45924</v>
+      </c>
+      <c r="W1" s="49">
+        <v>45925</v>
+      </c>
+      <c r="X1" s="49">
+        <v>45927</v>
+      </c>
+      <c r="Y1" s="49">
+        <v>45928</v>
+      </c>
+      <c r="Z1" s="49">
+        <v>45929</v>
+      </c>
+      <c r="AA1" s="49">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.23</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1.335</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1.32</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1.335</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1.635</v>
+      </c>
+      <c r="O2" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3.72</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3.45</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2.85</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2.52</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="I4" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>5.85</v>
+      </c>
+      <c r="K4" s="12">
+        <v>7.875</v>
+      </c>
+      <c r="L4" s="12">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="M4" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="N4" s="12">
+        <v>6.5549999999999997</v>
+      </c>
+      <c r="O4" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="P4" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="D6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="G6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="H6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="I6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="J6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="K6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="L6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="M6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="N6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="O6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="P6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1.125</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.435</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Production_Filled_September.xlsx
+++ b/data/Production_Filled_September.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -633,11 +633,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -732,9 +803,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -743,6 +811,54 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6863,8 +6979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD11" sqref="AD11:AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7942,7 +8059,7 @@
       </c>
       <c r="AT10" s="12"/>
     </row>
-    <row r="11" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>45911</v>
       </c>
@@ -8568,55 +8685,104 @@
       <c r="A17" s="8">
         <v>45918</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="12">
+        <v>47.222999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3.0419999999999998</v>
+      </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+        <v>50.265000000000001</v>
+      </c>
+      <c r="E17" s="12">
+        <v>45.543999999999997</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="K17" s="12">
+        <f>0.551+0.433+0.131</f>
+        <v>1.115</v>
+      </c>
+      <c r="L17" s="12">
+        <v>163.01400000000001</v>
+      </c>
+      <c r="M17" s="12">
+        <v>70.05</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="U17" s="12">
+        <v>27.663</v>
+      </c>
+      <c r="V17" s="12">
+        <v>259.33300000000003</v>
+      </c>
+      <c r="W17" s="12">
+        <v>308.71600000000001</v>
+      </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
+      <c r="Z17" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>2.661</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>1.4359999999999999</v>
+      </c>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
+      <c r="AE17" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>23.998000000000001</v>
+      </c>
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
+      <c r="AJ17" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>24.16</v>
+      </c>
+      <c r="AL17" s="12">
+        <v>155.559</v>
+      </c>
       <c r="AM17" s="12"/>
       <c r="AN17" s="12"/>
       <c r="AO17" s="12"/>
       <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
+      <c r="AQ17" s="12">
+        <v>163.239</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>20.444500000000001</v>
+      </c>
       <c r="AS17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183.68350000000001</v>
       </c>
       <c r="AT17" s="12"/>
     </row>
@@ -8624,55 +8790,104 @@
       <c r="A18" s="8">
         <v>45920</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="12">
+        <v>41.591999999999999</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3.0070000000000001</v>
+      </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+        <v>44.598999999999997</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45.662999999999997</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H18" s="12">
+        <v>5.9649999999999999</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="K18" s="12">
+        <f>0.251+0.368+0.433+0.197</f>
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="L18" s="12">
+        <v>165.48099999999999</v>
+      </c>
+      <c r="M18" s="12">
+        <v>70.05</v>
+      </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="P18" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
+      <c r="U18" s="12">
+        <v>27.875</v>
+      </c>
+      <c r="V18" s="12">
+        <v>258.58699999999999</v>
+      </c>
+      <c r="W18" s="12">
+        <v>325.23599999999999</v>
+      </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
+      <c r="Z18" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>1.518</v>
+      </c>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
+      <c r="AE18" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>23.998000000000001</v>
+      </c>
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
+      <c r="AJ18" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>25.337</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>155.559</v>
+      </c>
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
       <c r="AO18" s="12"/>
       <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
+      <c r="AQ18" s="12">
+        <v>173.464</v>
+      </c>
+      <c r="AR18" s="12">
+        <v>19.635000000000002</v>
+      </c>
       <c r="AS18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193.09899999999999</v>
       </c>
       <c r="AT18" s="12"/>
     </row>
@@ -8680,21 +8895,39 @@
       <c r="A19" s="8">
         <v>45921</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="12">
+        <v>50.17</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2.7450000000000001</v>
+      </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+        <v>52.914999999999999</v>
+      </c>
+      <c r="E19" s="12">
+        <v>46.031999999999996</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H19" s="12">
+        <v>5.9770000000000003</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="K19" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="L19" s="12">
+        <v>54.335999999999999</v>
+      </c>
+      <c r="M19" s="12">
+        <v>164.505</v>
+      </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -8702,33 +8935,61 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
+      <c r="U19" s="12">
+        <v>26.923999999999999</v>
+      </c>
+      <c r="V19" s="12">
+        <v>259.90699999999998</v>
+      </c>
+      <c r="W19" s="12">
+        <v>354.416</v>
+      </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
+      <c r="Z19" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>2.6469999999999998</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>1.599</v>
+      </c>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
+      <c r="AE19" s="12">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
+      <c r="AJ19" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>26.193000000000001</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>155.559</v>
+      </c>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
       <c r="AO19" s="12"/>
       <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
+      <c r="AQ19" s="12">
+        <v>185.114</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>19.664999999999999</v>
+      </c>
       <c r="AS19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>204.779</v>
       </c>
       <c r="AT19" s="12"/>
     </row>
@@ -8736,21 +8997,39 @@
       <c r="A20" s="8">
         <v>45922</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="12">
+        <v>40.978999999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3.0409999999999999</v>
+      </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+        <v>44.019999999999996</v>
+      </c>
+      <c r="E20" s="12">
+        <v>46.167999999999999</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G20" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H20" s="12">
+        <v>5.9770000000000003</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="K20" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="L20" s="12">
+        <v>165.428</v>
+      </c>
+      <c r="M20" s="12">
+        <v>54.683</v>
+      </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -8758,33 +9037,61 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
+      <c r="U20" s="12">
+        <v>27.687999999999999</v>
+      </c>
+      <c r="V20" s="12">
+        <v>267.15100000000001</v>
+      </c>
+      <c r="W20" s="12">
+        <v>375.10599999999999</v>
+      </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
+      <c r="Z20" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>2.794</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>1.599</v>
+      </c>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
+      <c r="AE20" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
+      <c r="AJ20" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>27.155999999999999</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
+      <c r="AQ20" s="12">
+        <v>175.60900000000001</v>
+      </c>
+      <c r="AR20" s="12">
+        <v>19.545000000000002</v>
+      </c>
       <c r="AS20" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>195.154</v>
       </c>
       <c r="AT20" s="12"/>
     </row>
@@ -8792,55 +9099,104 @@
       <c r="A21" s="8">
         <v>45923</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="12">
+        <v>44.588999999999999</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2.73</v>
+      </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+        <v>47.318999999999996</v>
+      </c>
+      <c r="E21" s="12">
+        <v>46.417000000000002</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G21" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H21" s="12">
+        <v>6.2169999999999996</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="K21" s="12">
+        <f>0.368+0.65+0.131</f>
+        <v>1.149</v>
+      </c>
+      <c r="L21" s="12">
+        <v>166.446</v>
+      </c>
+      <c r="M21" s="12">
+        <v>54.683</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="P21" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
+      <c r="U21" s="12">
+        <v>27.751000000000001</v>
+      </c>
+      <c r="V21" s="12">
+        <v>267.154</v>
+      </c>
+      <c r="W21" s="12">
+        <v>329.286</v>
+      </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
+      <c r="Z21" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>2.887</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>1.6539999999999999</v>
+      </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
+      <c r="AE21" s="12">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="AJ21" s="12">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>27.155999999999999</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
       <c r="AO21" s="12"/>
       <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
+      <c r="AQ21" s="12">
+        <v>174.26900000000001</v>
+      </c>
+      <c r="AR21" s="12">
+        <v>19.8</v>
+      </c>
       <c r="AS21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>194.06900000000002</v>
       </c>
       <c r="AT21" s="12"/>
     </row>
@@ -8848,21 +9204,39 @@
       <c r="A22" s="8">
         <v>45924</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="12">
+        <v>44.046999999999997</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2.8220000000000001</v>
+      </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+        <v>46.869</v>
+      </c>
+      <c r="E22" s="12">
+        <v>46.25</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="G22" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H22" s="12">
+        <v>6.2770000000000001</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="12">
+        <v>1.196</v>
+      </c>
+      <c r="L22" s="12">
+        <v>165.82</v>
+      </c>
+      <c r="M22" s="12">
+        <v>57.082000000000001</v>
+      </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -8870,33 +9244,61 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
+      <c r="U22" s="12">
+        <v>28.907</v>
+      </c>
+      <c r="V22" s="12">
+        <v>278.93299999999999</v>
+      </c>
+      <c r="W22" s="12">
+        <v>210.946</v>
+      </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
+      <c r="Z22" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>1.6539999999999999</v>
+      </c>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
+      <c r="AE22" s="12">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
+      <c r="AJ22" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>28.332999999999998</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
       <c r="AO22" s="12"/>
       <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
+      <c r="AQ22" s="12">
+        <v>182.53899999999999</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>20.175000000000001</v>
+      </c>
       <c r="AS22" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>202.714</v>
       </c>
       <c r="AT22" s="12"/>
     </row>
@@ -8904,21 +9306,39 @@
       <c r="A23" s="8">
         <v>45925</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="12">
+        <v>47.17</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2.8090000000000002</v>
+      </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+        <v>49.978999999999999</v>
+      </c>
+      <c r="E23" s="12">
+        <v>46.052999999999997</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.747</v>
+      </c>
+      <c r="G23" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H23" s="12">
+        <v>6.2770000000000001</v>
+      </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="K23" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="L23" s="12">
+        <v>166.83799999999999</v>
+      </c>
+      <c r="M23" s="12">
+        <v>57.082000000000001</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -8926,33 +9346,61 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
+      <c r="U23" s="12">
+        <v>29.306000000000001</v>
+      </c>
+      <c r="V23" s="12">
+        <v>284.63299999999998</v>
+      </c>
+      <c r="W23" s="12">
+        <v>195.286</v>
+      </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+      <c r="Z23" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>1.7629999999999999</v>
+      </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+      <c r="AE23" s="12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>23.225999999999999</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH23" s="12"/>
       <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="AJ23" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>29.617000000000001</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
+      <c r="AQ23" s="12">
+        <v>182.53899999999999</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>20.175000000000001</v>
+      </c>
       <c r="AS23" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>202.714</v>
       </c>
       <c r="AT23" s="12"/>
     </row>
@@ -8960,21 +9408,39 @@
       <c r="A24" s="8">
         <v>45927</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="12">
+        <v>41.08</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3.5579999999999998</v>
+      </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+        <v>44.637999999999998</v>
+      </c>
+      <c r="E24" s="12">
+        <v>46.103999999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="G24" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H24" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="K24" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="L24" s="12">
+        <v>166.38</v>
+      </c>
+      <c r="M24" s="12">
+        <v>54</v>
+      </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -8982,33 +9448,61 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+      <c r="U24" s="12">
+        <v>29.597000000000001</v>
+      </c>
+      <c r="V24" s="12">
+        <v>279.58</v>
+      </c>
+      <c r="W24" s="12">
+        <v>227.76599999999999</v>
+      </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
+      <c r="Z24" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>1.899</v>
+      </c>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
+      <c r="AE24" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>23.225999999999999</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH24" s="12"/>
       <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
+      <c r="AJ24" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>30.794</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM24" s="12"/>
       <c r="AN24" s="12"/>
       <c r="AO24" s="12"/>
       <c r="AP24" s="12"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
+      <c r="AQ24" s="12">
+        <v>168.90899999999999</v>
+      </c>
+      <c r="AR24" s="12">
+        <v>22.844999999999999</v>
+      </c>
       <c r="AS24" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191.75399999999999</v>
       </c>
       <c r="AT24" s="12"/>
     </row>
@@ -9016,55 +9510,104 @@
       <c r="A25" s="8">
         <v>45928</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="12">
+        <v>36.354999999999997</v>
+      </c>
+      <c r="C25" s="12">
+        <v>3.198</v>
+      </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+        <v>39.552999999999997</v>
+      </c>
+      <c r="E25" s="12">
+        <v>46.255000000000003</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H25" s="12">
+        <v>5.1970000000000001</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="K25" s="12">
+        <f>0.503+0.217+0.264+0.197</f>
+        <v>1.181</v>
+      </c>
+      <c r="L25" s="12">
+        <v>168.06899999999999</v>
+      </c>
+      <c r="M25" s="12">
+        <v>54</v>
+      </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="P25" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="U25" s="12">
+        <v>29.69</v>
+      </c>
+      <c r="V25" s="12">
+        <v>283.07</v>
+      </c>
+      <c r="W25" s="12">
+        <v>252.99600000000001</v>
+      </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
+      <c r="Z25" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>3.194</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>1.899</v>
+      </c>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
+      <c r="AE25" s="12">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>23.643999999999998</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
+      <c r="AJ25" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>31.971</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
       <c r="AO25" s="12"/>
       <c r="AP25" s="12"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12"/>
+      <c r="AQ25" s="12">
+        <v>164.09299999999999</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>24.48</v>
+      </c>
       <c r="AS25" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>188.57299999999998</v>
       </c>
       <c r="AT25" s="12"/>
     </row>
@@ -9072,55 +9615,104 @@
       <c r="A26" s="8">
         <v>45929</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="12">
+        <v>39.39</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2.69</v>
+      </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+        <v>42.08</v>
+      </c>
+      <c r="E26" s="12">
+        <v>46.11</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G26" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H26" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="K26" s="12">
+        <f>0.503+0.184+0.217+0.197</f>
+        <v>1.101</v>
+      </c>
+      <c r="L26" s="12">
+        <v>168.845</v>
+      </c>
+      <c r="M26" s="12">
+        <v>54.65</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="P26" s="12">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+      <c r="U26" s="12">
+        <v>29.567</v>
+      </c>
+      <c r="V26" s="12">
+        <v>294.01400000000001</v>
+      </c>
+      <c r="W26" s="12">
+        <v>272.71600000000001</v>
+      </c>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
+      <c r="Z26" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>1.9970000000000001</v>
+      </c>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
+      <c r="AE26" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>23.643999999999998</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
+      <c r="AJ26" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>33.255000000000003</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM26" s="12"/>
       <c r="AN26" s="12"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
+      <c r="AQ26" s="12">
+        <v>166.81800000000001</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>24.645</v>
+      </c>
       <c r="AS26" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191.46300000000002</v>
       </c>
       <c r="AT26" s="12"/>
     </row>
@@ -9128,21 +9720,39 @@
       <c r="A27" s="8">
         <v>45930</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="12">
+        <v>37.076999999999998</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2.76</v>
+      </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+        <v>39.836999999999996</v>
+      </c>
+      <c r="E27" s="12">
+        <v>42.715000000000003</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G27" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="H27" s="12">
+        <v>5.9169999999999998</v>
+      </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="K27" s="12">
+        <v>1.196</v>
+      </c>
+      <c r="L27" s="12">
+        <v>169.714</v>
+      </c>
+      <c r="M27" s="12">
+        <v>54.65</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -9150,33 +9760,61 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
+      <c r="U27" s="12">
+        <v>28.265000000000001</v>
+      </c>
+      <c r="V27" s="12">
+        <v>308.05099999999999</v>
+      </c>
+      <c r="W27" s="12">
+        <v>295.33600000000001</v>
+      </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
+      <c r="Z27" s="12">
+        <v>0.123</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>1.9970000000000001</v>
+      </c>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="AE27" s="12">
+        <v>0.437</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>23.643999999999998</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>22.323</v>
+      </c>
       <c r="AH27" s="12"/>
       <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="AJ27" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="AK27" s="12">
+        <v>34.432000000000002</v>
+      </c>
+      <c r="AL27" s="12">
+        <v>155.81</v>
+      </c>
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
+      <c r="AQ27" s="12">
+        <v>174.44800000000001</v>
+      </c>
+      <c r="AR27" s="12">
+        <v>24.06</v>
+      </c>
       <c r="AS27" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>198.50800000000001</v>
       </c>
       <c r="AT27" s="12"/>
     </row>
@@ -9190,8 +9828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J10" activeCellId="1" sqref="H10 J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9604,187 +10242,275 @@
       <c r="A17" s="8">
         <v>45918</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="9">
+        <v>31.29</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9.23</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.67100000000000004</v>
+      </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.890999999999998</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.190999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>45920</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="19">
+        <v>31.670999999999999</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8.875</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.67400000000000004</v>
+      </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.85</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>45921</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="9">
+        <v>29.858000000000001</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.66200000000000003</v>
+      </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39.42</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>45922</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="23"/>
+      <c r="B20" s="9">
+        <v>30.667999999999999</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.69199999999999995</v>
+      </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.86</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>45923</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="11">
+        <v>31.081</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>10.29</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.67800000000000005</v>
+      </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.048999999999992</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.048999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>45924</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="9">
+        <v>31.843</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>10.02</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.69</v>
+      </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.552999999999997</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.552999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>45925</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="9">
+        <v>32.412999999999997</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9.82</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.747</v>
+      </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.98</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>45927</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="9">
+        <v>32.646999999999998</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>8.89</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.79900000000000004</v>
+      </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.335999999999999</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.335999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>45928</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="9">
+        <v>33.423000000000002</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>10.58</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.8</v>
+      </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44.802999999999997</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.802999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>45929</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="9">
+        <v>33.283999999999999</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>10.48</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.80400000000000005</v>
+      </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44.567999999999998</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.567999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>45930</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="9">
+        <v>31.199000000000002</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.78100000000000003</v>
+      </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.36</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9807,7 +10533,7 @@
       </c>
       <c r="G29" s="28">
         <f>SUM(G2:G27)</f>
-        <v>603.27499999999986</v>
+        <v>1066.6149999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9819,8 +10545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:AA85"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11305,11 +12031,11 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -11485,11 +12211,11 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
@@ -12089,11 +12815,11 @@
       <c r="C50" s="38"/>
     </row>
     <row r="52" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="36"/>
@@ -13297,11 +14023,11 @@
       <c r="Y74" s="26"/>
     </row>
     <row r="75" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -14491,7 +15217,8 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA1"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14500,86 +15227,86 @@
     <col min="2" max="27" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="53">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="54">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -14629,20 +15356,42 @@
       <c r="O2" s="32">
         <v>144.5</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="50">
         <v>146</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
+      <c r="Q2" s="58">
+        <v>146</v>
+      </c>
+      <c r="R2" s="55">
+        <v>146</v>
+      </c>
+      <c r="S2" s="56">
+        <v>145</v>
+      </c>
+      <c r="T2" s="57">
+        <v>146</v>
+      </c>
+      <c r="U2" s="56">
+        <v>146</v>
+      </c>
+      <c r="V2" s="56">
+        <v>146</v>
+      </c>
+      <c r="W2" s="56">
+        <v>146</v>
+      </c>
+      <c r="X2" s="56">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="56">
+        <v>146</v>
+      </c>
+      <c r="Z2" s="56">
+        <v>146</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -14690,20 +15439,42 @@
       <c r="O3" s="12">
         <v>1.78</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="51">
         <v>1.78</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="R3" s="52">
+        <v>1.76</v>
+      </c>
+      <c r="S3" s="12">
+        <v>1.79</v>
+      </c>
+      <c r="T3" s="12">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="V3" s="12">
+        <v>1.74</v>
+      </c>
+      <c r="W3" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="X3" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>1.7603</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -14751,17 +15522,33 @@
       <c r="O4" s="12">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="51">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
+      <c r="Q4" s="59">
+        <v>1.135</v>
+      </c>
+      <c r="R4" s="52">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.19</v>
+      </c>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
@@ -14812,20 +15599,42 @@
       <c r="O5" s="12">
         <v>0.65</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="51">
         <v>0.63800000000000001</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="39">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="R5" s="52">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0.40500000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -14873,20 +15682,42 @@
       <c r="O6" s="12">
         <v>16.693999999999999</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="51">
         <v>17.187999999999999</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="60">
+        <v>17.263999999999999</v>
+      </c>
+      <c r="R6" s="52">
+        <v>17.088999999999999</v>
+      </c>
+      <c r="S6" s="12">
+        <v>16.254000000000001</v>
+      </c>
+      <c r="T6" s="12">
+        <v>17.07</v>
+      </c>
+      <c r="U6" s="12">
+        <v>16.672000000000001</v>
+      </c>
+      <c r="V6" s="12">
+        <v>16.61</v>
+      </c>
+      <c r="W6" s="12">
+        <v>17.193999999999999</v>
+      </c>
+      <c r="X6" s="12">
+        <v>16.669</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>15.7</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>16.68</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -14934,11 +15765,11 @@
       <c r="O7" s="12">
         <v>0</v>
       </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="P7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
@@ -14995,11 +15826,11 @@
       <c r="O8" s="12">
         <v>0</v>
       </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="P8" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="52"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
@@ -15056,17 +15887,29 @@
       <c r="O9" s="12">
         <v>0</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="51">
         <v>1.8</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="Q9" s="62">
+        <v>0</v>
+      </c>
+      <c r="R9" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>2.17</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="X9" s="12">
+        <v>1.89</v>
+      </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -15117,20 +15960,42 @@
       <c r="O10" s="12">
         <v>10.843999999999999</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="51">
         <v>10.638</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Q10" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="R10" s="52">
+        <v>9.39</v>
+      </c>
+      <c r="S10" s="12">
+        <v>9.44</v>
+      </c>
+      <c r="T10" s="12">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="U10" s="12">
+        <v>9.44</v>
+      </c>
+      <c r="V10" s="12">
+        <v>9.49</v>
+      </c>
+      <c r="W10" s="12">
+        <v>9.36</v>
+      </c>
+      <c r="X10" s="12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>9.44</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>9.07</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -15178,20 +16043,42 @@
       <c r="O11" s="12">
         <v>3.99</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="51">
         <v>3.97</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Q11" s="39">
+        <v>3.98</v>
+      </c>
+      <c r="R11" s="52">
+        <v>3.86</v>
+      </c>
+      <c r="S11" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="T11" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="U11" s="12">
+        <v>5.28</v>
+      </c>
+      <c r="V11" s="12">
+        <v>5.16</v>
+      </c>
+      <c r="W11" s="12">
+        <v>5.24</v>
+      </c>
+      <c r="X11" s="12">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>5.08</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>3.88</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -15239,20 +16126,42 @@
       <c r="O12" s="12">
         <v>5.87</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="51">
         <v>3.82</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="Q12" s="60">
+        <v>5.69</v>
+      </c>
+      <c r="R12" s="52">
+        <v>4.4050000000000002</v>
+      </c>
+      <c r="S12" s="12">
+        <v>5</v>
+      </c>
+      <c r="T12" s="12">
+        <v>7.22</v>
+      </c>
+      <c r="U12" s="12">
+        <v>6.18</v>
+      </c>
+      <c r="V12" s="12">
+        <v>6.22</v>
+      </c>
+      <c r="W12" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="X12" s="12">
+        <v>4.93</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>6.83</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>5.26</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -15300,11 +16209,11 @@
       <c r="O13" s="12">
         <v>0</v>
       </c>
-      <c r="P13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="P13" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="52"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
@@ -15361,20 +16270,42 @@
       <c r="O14" s="12">
         <v>0</v>
       </c>
-      <c r="P14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="P14" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="R14" s="52">
+        <v>0.52</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="V14" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -15422,11 +16353,11 @@
       <c r="O15" s="12">
         <v>0</v>
       </c>
-      <c r="P15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="P15" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
@@ -15483,11 +16414,11 @@
       <c r="O16" s="12">
         <v>0</v>
       </c>
-      <c r="P16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="P16" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
@@ -15544,11 +16475,11 @@
       <c r="O17" s="12">
         <v>0</v>
       </c>
-      <c r="P17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="P17" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="52"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -15605,20 +16536,42 @@
       <c r="O18" s="12">
         <v>3.2749999999999999</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="51">
         <v>3.28</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="Q18" s="64">
+        <v>3.54</v>
+      </c>
+      <c r="R18" s="52">
+        <v>4.47</v>
+      </c>
+      <c r="S18" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="T18" s="12">
+        <v>3.28</v>
+      </c>
+      <c r="U18" s="12">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="V18" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="W18" s="12">
+        <v>4.26</v>
+      </c>
+      <c r="X18" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>3.65</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -15666,20 +16619,42 @@
       <c r="O19" s="12">
         <v>0.95499999999999996</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="51">
         <v>0.92</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="Q19" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="R19" s="52">
+        <v>0.88</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>0.94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15691,8 +16666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15701,86 +16676,86 @@
     <col min="2" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -15833,17 +16808,39 @@
       <c r="P2" s="12">
         <v>0.67900000000000005</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="Q2" s="12">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0.747</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15855,7 +16852,8 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15864,86 +16862,86 @@
     <col min="2" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -16004,17 +17002,44 @@
       <c r="P2" s="12">
         <v>1.1479999999999999</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="Q2" s="12">
+        <f>0.551+0.433+0.131</f>
+        <v>1.115</v>
+      </c>
+      <c r="R2" s="12">
+        <f>0.251+0.368+0.433+0.197</f>
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="S2" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="T2" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="U2" s="12">
+        <f>0.368+0.65+0.131</f>
+        <v>1.149</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1.196</v>
+      </c>
+      <c r="W2" s="12">
+        <v>1.214</v>
+      </c>
+      <c r="X2" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>0.503+0.217+0.264+0.197</f>
+        <v>1.181</v>
+      </c>
+      <c r="Z2" s="12">
+        <f>0.503+0.184+0.217+0.197</f>
+        <v>1.101</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>1.196</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -16065,17 +17090,39 @@
       <c r="P3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -16126,17 +17173,39 @@
       <c r="P4" s="12">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="S4" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -16187,17 +17256,39 @@
       <c r="P5" s="12">
         <v>27.221</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="12">
+        <v>27.663</v>
+      </c>
+      <c r="R5" s="12">
+        <v>27.875</v>
+      </c>
+      <c r="S5" s="12">
+        <v>26.923999999999999</v>
+      </c>
+      <c r="T5" s="12">
+        <v>27.687999999999999</v>
+      </c>
+      <c r="U5" s="12">
+        <v>27.751000000000001</v>
+      </c>
+      <c r="V5" s="12">
+        <v>28.907</v>
+      </c>
+      <c r="W5" s="12">
+        <v>29.306000000000001</v>
+      </c>
+      <c r="X5" s="12">
+        <v>29.597000000000001</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>29.69</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>29.567</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>28.265000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -16248,17 +17339,39 @@
       <c r="P6" s="12">
         <v>1.284</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>1.177</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1.284</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>1.177</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -16309,17 +17422,39 @@
       <c r="P7" s="12">
         <v>0.371</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="Q7" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0.437</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16328,10 +17463,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16340,86 +17476,86 @@
     <col min="2" max="27" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -16472,17 +17608,39 @@
       <c r="P2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -16594,17 +17752,39 @@
       <c r="P4" s="12">
         <v>6.5</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="12">
+        <v>6.75</v>
+      </c>
+      <c r="R4" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="S4" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="T4" s="12">
+        <v>7</v>
+      </c>
+      <c r="U4" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="V4" s="12">
+        <v>7</v>
+      </c>
+      <c r="W4" s="12">
+        <v>7</v>
+      </c>
+      <c r="X4" s="12">
+        <v>8.25</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -16655,17 +17835,39 @@
       <c r="P5" s="12">
         <v>1.25</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1</v>
+      </c>
+      <c r="X5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -16716,17 +17918,39 @@
       <c r="P6" s="12">
         <v>22</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="R6" s="12">
+        <v>20</v>
+      </c>
+      <c r="S6" s="12">
+        <v>19.5</v>
+      </c>
+      <c r="T6" s="12">
+        <v>19.3</v>
+      </c>
+      <c r="U6" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="V6" s="12">
+        <v>15</v>
+      </c>
+      <c r="W6" s="12">
+        <v>15</v>
+      </c>
+      <c r="X6" s="12">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -16777,17 +18001,39 @@
       <c r="P7" s="12">
         <v>30</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="Q7" s="12">
+        <v>30</v>
+      </c>
+      <c r="R7" s="12">
+        <v>32.5</v>
+      </c>
+      <c r="S7" s="12">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12">
+        <v>35</v>
+      </c>
+      <c r="U7" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="V7" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="W7" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="X7" s="12">
+        <v>35.6</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>38.5</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -16838,17 +18084,39 @@
       <c r="P8" s="12">
         <v>60.165999999999997</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Q8" s="12">
+        <v>54.055999999999997</v>
+      </c>
+      <c r="R8" s="12">
+        <v>58.460999999999999</v>
+      </c>
+      <c r="S8" s="12">
+        <v>63.460999999999999</v>
+      </c>
+      <c r="T8" s="12">
+        <v>60.045999999999999</v>
+      </c>
+      <c r="U8" s="12">
+        <v>54.646000000000001</v>
+      </c>
+      <c r="V8" s="12">
+        <v>60.866</v>
+      </c>
+      <c r="W8" s="12">
+        <v>60.866</v>
+      </c>
+      <c r="X8" s="12">
+        <v>60.015999999999998</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>57.527999999999999</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>64.358000000000004</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>69.617999999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -16899,17 +18167,39 @@
       <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -17021,17 +18311,39 @@
       <c r="P11" s="12">
         <v>29.132999999999999</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Q11" s="12">
+        <v>23.308</v>
+      </c>
+      <c r="R11" s="12">
+        <v>27.777999999999999</v>
+      </c>
+      <c r="S11" s="12">
+        <v>31.678000000000001</v>
+      </c>
+      <c r="T11" s="12">
+        <v>26.038</v>
+      </c>
+      <c r="U11" s="12">
+        <v>30.148</v>
+      </c>
+      <c r="V11" s="12">
+        <v>33.948</v>
+      </c>
+      <c r="W11" s="12">
+        <v>33.948</v>
+      </c>
+      <c r="X11" s="12">
+        <v>23.568000000000001</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>25.768000000000001</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>23.363</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>26.483000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -17082,17 +18394,39 @@
       <c r="P12" s="12">
         <v>19.225000000000001</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="Q12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="R12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="S12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="T12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="U12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="V12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="W12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="X12" s="12">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>18.347000000000001</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>18.347000000000001</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>18.347000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -17204,17 +18538,39 @@
       <c r="P14" s="12">
         <v>2.25</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="Q14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="R14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="S14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="T14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="U14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="V14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="W14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="X14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -17326,17 +18682,39 @@
       <c r="P16" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="Q16" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="R16" s="12">
+        <v>3</v>
+      </c>
+      <c r="S16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="T16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="U16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="V16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="W16" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="X16" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -17387,17 +18765,42 @@
       <c r="P17" s="12">
         <v>2</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="Q17" s="12">
+        <v>2</v>
+      </c>
+      <c r="R17" s="12">
+        <v>2</v>
+      </c>
+      <c r="S17" s="12">
+        <v>2</v>
+      </c>
+      <c r="T17" s="12">
+        <v>2</v>
+      </c>
+      <c r="U17" s="12">
+        <v>2</v>
+      </c>
+      <c r="V17" s="12">
+        <v>2</v>
+      </c>
+      <c r="W17" s="12">
+        <v>2</v>
+      </c>
+      <c r="X17" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S18" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17409,7 +18812,8 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17418,86 +18822,86 @@
     <col min="2" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
+    <row r="1" spans="1:27" s="47" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48">
         <v>45901</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>45902</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>45903</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>45904</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <v>45906</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <v>45907</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="48">
         <v>45908</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="48">
         <v>45909</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="48">
         <v>45910</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="48">
         <v>45911</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="48">
         <v>45913</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="48">
         <v>45914</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="48">
         <v>45915</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="48">
         <v>45917</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="48">
         <v>45920</v>
       </c>
-      <c r="S1" s="49">
+      <c r="S1" s="48">
         <v>45921</v>
       </c>
-      <c r="T1" s="49">
+      <c r="T1" s="48">
         <v>45922</v>
       </c>
-      <c r="U1" s="49">
+      <c r="U1" s="48">
         <v>45923</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="48">
         <v>45924</v>
       </c>
-      <c r="W1" s="49">
+      <c r="W1" s="48">
         <v>45925</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="48">
         <v>45927</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>45928</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>45929</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>45930</v>
       </c>
     </row>
@@ -17550,17 +18954,39 @@
       <c r="P2" s="12">
         <v>1.68</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="Q2" s="12">
+        <v>1.77</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="S2" s="12">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="T2" s="12">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="U2" s="12">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="V2" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="W2" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="X2" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>1.875</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -17611,17 +19037,39 @@
       <c r="P3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -17672,17 +19120,39 @@
       <c r="P4" s="12">
         <v>7.2</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="12">
+        <v>6.75</v>
+      </c>
+      <c r="R4" s="12">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="S4" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="T4" s="12">
+        <v>5.28</v>
+      </c>
+      <c r="U4" s="12">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="V4" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="W4" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="X4" s="12">
+        <v>7.47</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>9.42</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>9.4499999999999993</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -17733,17 +19203,39 @@
       <c r="P5" s="12">
         <v>0</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -17794,17 +19286,39 @@
       <c r="P6" s="12">
         <v>10.02</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="Q6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="R6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="S6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="T6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="U6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="V6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="W6" s="14">
+        <v>10.02</v>
+      </c>
+      <c r="X6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>10.02</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>10.02</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -17855,17 +19369,39 @@
       <c r="P7" s="12">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="Q7" s="12">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1.425</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -17916,17 +19452,39 @@
       <c r="P8" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -17977,17 +19535,39 @@
       <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -18038,17 +19618,39 @@
       <c r="P10" s="12">
         <v>0.48</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Q10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0.58499999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -18099,17 +19701,39 @@
       <c r="P11" s="12">
         <v>0.78</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Q11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0.78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Production_Filled_September.xlsx
+++ b/data/Production_Filled_September.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -655,34 +655,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -708,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -812,9 +784,6 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,13 +820,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6979,9 +6945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD11" sqref="AD11:AD12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR34" sqref="AR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9828,8 +9794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12031,11 +11997,11 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -12211,11 +12177,11 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
@@ -12815,11 +12781,11 @@
       <c r="C50" s="38"/>
     </row>
     <row r="52" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="36"/>
@@ -14023,11 +13989,11 @@
       <c r="Y74" s="26"/>
     </row>
     <row r="75" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -15217,8 +15183,7 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD9" sqref="AD9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15273,13 +15238,13 @@
       <c r="O1" s="48">
         <v>45916</v>
       </c>
-      <c r="P1" s="53">
+      <c r="P1" s="52">
         <v>45917</v>
       </c>
       <c r="Q1" s="48">
         <v>45918</v>
       </c>
-      <c r="R1" s="54">
+      <c r="R1" s="53">
         <v>45920</v>
       </c>
       <c r="S1" s="48">
@@ -15356,37 +15321,37 @@
       <c r="O2" s="32">
         <v>144.5</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="49">
         <v>146</v>
       </c>
-      <c r="Q2" s="58">
+      <c r="Q2" s="57">
         <v>146</v>
       </c>
-      <c r="R2" s="55">
+      <c r="R2" s="54">
         <v>146</v>
       </c>
-      <c r="S2" s="56">
+      <c r="S2" s="55">
         <v>145</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="56">
         <v>146</v>
       </c>
-      <c r="U2" s="56">
+      <c r="U2" s="55">
         <v>146</v>
       </c>
-      <c r="V2" s="56">
+      <c r="V2" s="55">
         <v>146</v>
       </c>
-      <c r="W2" s="56">
+      <c r="W2" s="55">
         <v>146</v>
       </c>
-      <c r="X2" s="56">
+      <c r="X2" s="55">
         <v>146</v>
       </c>
-      <c r="Y2" s="56">
+      <c r="Y2" s="55">
         <v>146</v>
       </c>
-      <c r="Z2" s="56">
+      <c r="Z2" s="55">
         <v>146</v>
       </c>
       <c r="AA2" s="32">
@@ -15439,13 +15404,13 @@
       <c r="O3" s="12">
         <v>1.78</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="50">
         <v>1.78</v>
       </c>
-      <c r="Q3" s="59">
+      <c r="Q3" s="58">
         <v>1.8</v>
       </c>
-      <c r="R3" s="52">
+      <c r="R3" s="51">
         <v>1.76</v>
       </c>
       <c r="S3" s="12">
@@ -15522,13 +15487,13 @@
       <c r="O4" s="12">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="50">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="58">
         <v>1.135</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="51">
         <v>0.54500000000000004</v>
       </c>
       <c r="S4" s="12">
@@ -15549,9 +15514,15 @@
       <c r="X4" s="12">
         <v>0.19</v>
       </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -15599,13 +15570,13 @@
       <c r="O5" s="12">
         <v>0.65</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="50">
         <v>0.63800000000000001</v>
       </c>
       <c r="Q5" s="39">
         <v>0.64500000000000002</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="51">
         <v>0.64400000000000002</v>
       </c>
       <c r="S5" s="12">
@@ -15682,13 +15653,13 @@
       <c r="O6" s="12">
         <v>16.693999999999999</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="50">
         <v>17.187999999999999</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="59">
         <v>17.263999999999999</v>
       </c>
-      <c r="R6" s="52">
+      <c r="R6" s="51">
         <v>17.088999999999999</v>
       </c>
       <c r="S6" s="12">
@@ -15765,20 +15736,42 @@
       <c r="O7" s="12">
         <v>0</v>
       </c>
-      <c r="P7" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="P7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -15826,20 +15819,42 @@
       <c r="O8" s="12">
         <v>0</v>
       </c>
-      <c r="P8" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="P8" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -15887,13 +15902,13 @@
       <c r="O9" s="12">
         <v>0</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="50">
         <v>1.8</v>
       </c>
-      <c r="Q9" s="62">
-        <v>0</v>
-      </c>
-      <c r="R9" s="52">
+      <c r="Q9" s="60">
+        <v>0</v>
+      </c>
+      <c r="R9" s="51">
         <v>2.1</v>
       </c>
       <c r="S9" s="12">
@@ -15905,14 +15920,24 @@
       <c r="U9" s="12">
         <v>0</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
       <c r="X9" s="12">
         <v>1.89</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -15960,13 +15985,13 @@
       <c r="O10" s="12">
         <v>10.843999999999999</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="50">
         <v>10.638</v>
       </c>
       <c r="Q10" s="12">
         <v>10.28</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="51">
         <v>9.39</v>
       </c>
       <c r="S10" s="12">
@@ -16043,13 +16068,13 @@
       <c r="O11" s="12">
         <v>3.99</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="50">
         <v>3.97</v>
       </c>
       <c r="Q11" s="39">
         <v>3.98</v>
       </c>
-      <c r="R11" s="52">
+      <c r="R11" s="51">
         <v>3.86</v>
       </c>
       <c r="S11" s="12">
@@ -16126,13 +16151,13 @@
       <c r="O12" s="12">
         <v>5.87</v>
       </c>
-      <c r="P12" s="51">
+      <c r="P12" s="50">
         <v>3.82</v>
       </c>
-      <c r="Q12" s="60">
+      <c r="Q12" s="59">
         <v>5.69</v>
       </c>
-      <c r="R12" s="52">
+      <c r="R12" s="51">
         <v>4.4050000000000002</v>
       </c>
       <c r="S12" s="12">
@@ -16209,20 +16234,42 @@
       <c r="O13" s="12">
         <v>0</v>
       </c>
-      <c r="P13" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="P13" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>0</v>
+      </c>
+      <c r="R13" s="50">
+        <v>0</v>
+      </c>
+      <c r="S13" s="50">
+        <v>0</v>
+      </c>
+      <c r="T13" s="50">
+        <v>0</v>
+      </c>
+      <c r="U13" s="50">
+        <v>0</v>
+      </c>
+      <c r="V13" s="50">
+        <v>0</v>
+      </c>
+      <c r="W13" s="50">
+        <v>0</v>
+      </c>
+      <c r="X13" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -16270,13 +16317,13 @@
       <c r="O14" s="12">
         <v>0</v>
       </c>
-      <c r="P14" s="51">
+      <c r="P14" s="50">
         <v>0</v>
       </c>
       <c r="Q14" s="12">
         <v>0.27</v>
       </c>
-      <c r="R14" s="52">
+      <c r="R14" s="51">
         <v>0.52</v>
       </c>
       <c r="S14" s="12">
@@ -16353,20 +16400,42 @@
       <c r="O15" s="12">
         <v>0</v>
       </c>
-      <c r="P15" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="P15" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>0</v>
+      </c>
+      <c r="R15" s="50">
+        <v>0</v>
+      </c>
+      <c r="S15" s="50">
+        <v>0</v>
+      </c>
+      <c r="T15" s="50">
+        <v>0</v>
+      </c>
+      <c r="U15" s="50">
+        <v>0</v>
+      </c>
+      <c r="V15" s="50">
+        <v>0</v>
+      </c>
+      <c r="W15" s="50">
+        <v>0</v>
+      </c>
+      <c r="X15" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -16414,20 +16483,42 @@
       <c r="O16" s="12">
         <v>0</v>
       </c>
-      <c r="P16" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="P16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>0</v>
+      </c>
+      <c r="R16" s="50">
+        <v>0</v>
+      </c>
+      <c r="S16" s="50">
+        <v>0</v>
+      </c>
+      <c r="T16" s="50">
+        <v>0</v>
+      </c>
+      <c r="U16" s="50">
+        <v>0</v>
+      </c>
+      <c r="V16" s="50">
+        <v>0</v>
+      </c>
+      <c r="W16" s="50">
+        <v>0</v>
+      </c>
+      <c r="X16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -16475,20 +16566,42 @@
       <c r="O17" s="12">
         <v>0</v>
       </c>
-      <c r="P17" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="P17" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>0</v>
+      </c>
+      <c r="R17" s="50">
+        <v>0</v>
+      </c>
+      <c r="S17" s="50">
+        <v>0</v>
+      </c>
+      <c r="T17" s="50">
+        <v>0</v>
+      </c>
+      <c r="U17" s="50">
+        <v>0</v>
+      </c>
+      <c r="V17" s="50">
+        <v>0</v>
+      </c>
+      <c r="W17" s="50">
+        <v>0</v>
+      </c>
+      <c r="X17" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -16536,13 +16649,13 @@
       <c r="O18" s="12">
         <v>3.2749999999999999</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="50">
         <v>3.28</v>
       </c>
-      <c r="Q18" s="64">
+      <c r="Q18" s="61">
         <v>3.54</v>
       </c>
-      <c r="R18" s="52">
+      <c r="R18" s="51">
         <v>4.47</v>
       </c>
       <c r="S18" s="12">
@@ -16619,13 +16732,13 @@
       <c r="O19" s="12">
         <v>0.95499999999999996</v>
       </c>
-      <c r="P19" s="51">
+      <c r="P19" s="50">
         <v>0.92</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="58">
         <v>0.94</v>
       </c>
-      <c r="R19" s="52">
+      <c r="R19" s="51">
         <v>0.88</v>
       </c>
       <c r="S19" s="12">
@@ -16666,8 +16779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16852,8 +16965,8 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17466,8 +17579,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R13" sqref="R13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17691,17 +17803,39 @@
       <c r="P3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -18250,17 +18384,39 @@
       <c r="P10" s="12">
         <v>0</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -18477,17 +18633,39 @@
       <c r="P13" s="12">
         <v>0</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -18621,17 +18799,39 @@
       <c r="P15" s="12">
         <v>0</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -18811,9 +19011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
